--- a/app_package/static/utility_getSts/stsRecentHistory.xlsx
+++ b/app_package/static/utility_getSts/stsRecentHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -31,7 +31,13 @@
     <t>http://127.0.0.1:8000</t>
   </si>
   <si>
+    <t>https://dashanddata.com</t>
+  </si>
+  <si>
     <t>no status found</t>
+  </si>
+  <si>
+    <t>max-age=63072000; includeSubdomains</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,12 +423,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
